--- a/Results_Spreadsheet.xlsx
+++ b/Results_Spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\BCB546\Group Project\BCB546X_FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21A3592-E07F-4A5F-A3DA-6561CC142A13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5180ADDC-D7A2-401B-A894-FE66B9D239FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8FDF7948-A049-4EF5-95C9-622BE3889573}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="27">
   <si>
     <t>FileName</t>
   </si>
@@ -55,6 +55,63 @@
   </si>
   <si>
     <t>Difference</t>
+  </si>
+  <si>
+    <t>Blast Type</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Them</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Mock</t>
+  </si>
+  <si>
+    <t>PMV</t>
+  </si>
+  <si>
+    <t>Combined</t>
+  </si>
+  <si>
+    <t>Mock-1</t>
+  </si>
+  <si>
+    <t>SPMV</t>
+  </si>
+  <si>
+    <t>Mock -2</t>
+  </si>
+  <si>
+    <t>Mock-2</t>
+  </si>
+  <si>
+    <t>Read #</t>
+  </si>
+  <si>
+    <t>PMV-1</t>
+  </si>
+  <si>
+    <t>PMV-2</t>
+  </si>
+  <si>
+    <t>Combined-1</t>
+  </si>
+  <si>
+    <t>Combined-2</t>
+  </si>
+  <si>
+    <t>Our Total #s</t>
   </si>
 </sst>
 </file>
@@ -423,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52CDA04D-563A-4A33-B4D6-3863C5F3B6C8}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -438,7 +495,7 @@
     <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,7 +512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -474,7 +531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -493,7 +550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -510,6 +567,326 @@
       <c r="E4" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>10881</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>10840</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="2">
+        <v>20000</v>
+      </c>
+      <c r="F15">
+        <v>21721</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>10004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20">
+        <v>9960</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21">
+        <v>19928</v>
+      </c>
+      <c r="F21">
+        <v>19964</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23">
+        <v>375</v>
+      </c>
+      <c r="F23">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24">
+        <v>763</v>
       </c>
     </row>
   </sheetData>

--- a/Results_Spreadsheet.xlsx
+++ b/Results_Spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\BCB546\Group Project\BCB546X_FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5180ADDC-D7A2-401B-A894-FE66B9D239FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3276FCB-EED9-4401-B42F-AD8A1CFF2B84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8FDF7948-A049-4EF5-95C9-622BE3889573}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="30">
   <si>
     <t>FileName</t>
   </si>
@@ -112,6 +112,15 @@
   </si>
   <si>
     <t>Our Total #s</t>
+  </si>
+  <si>
+    <t>Counting Uniqs</t>
+  </si>
+  <si>
+    <t>Mega</t>
+  </si>
+  <si>
+    <t>Discont.</t>
   </si>
 </sst>
 </file>
@@ -480,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52CDA04D-563A-4A33-B4D6-3863C5F3B6C8}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,7 +504,7 @@
     <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,7 +521,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -531,7 +540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -550,7 +559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -569,7 +578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>8</v>
@@ -586,8 +595,14 @@
       <c r="F6" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -604,7 +619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
         <v>13</v>
@@ -622,7 +637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -639,7 +654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -656,7 +671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
         <v>13</v>
@@ -671,7 +686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -688,7 +703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -704,8 +719,11 @@
       <c r="E13">
         <v>10881</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <v>10860</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -718,8 +736,11 @@
       <c r="E14">
         <v>10840</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <v>10794</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -738,8 +759,12 @@
       <c r="F15">
         <v>21721</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <f>SUM(G13:G14)</f>
+        <v>21654</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -756,7 +781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>13</v>
       </c>
@@ -770,7 +795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
@@ -787,7 +812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -803,8 +828,11 @@
       <c r="E19">
         <v>10004</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>9975</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>13</v>
       </c>
@@ -817,8 +845,11 @@
       <c r="E20">
         <v>9960</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <v>9916</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
@@ -837,8 +868,12 @@
       <c r="F21">
         <v>19964</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <f>SUM(G19:G20)</f>
+        <v>19891</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
@@ -855,7 +890,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>13</v>
       </c>
@@ -872,7 +907,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
@@ -887,6 +922,474 @@
       </c>
       <c r="E24">
         <v>763</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Results_Spreadsheet.xlsx
+++ b/Results_Spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\BCB546\Group Project\BCB546X_FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3276FCB-EED9-4401-B42F-AD8A1CFF2B84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5CFFDE4-7260-4F8D-BDD8-6BA5EF39AF41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8FDF7948-A049-4EF5-95C9-622BE3889573}"/>
   </bookViews>
@@ -114,13 +114,13 @@
     <t>Our Total #s</t>
   </si>
   <si>
-    <t>Counting Uniqs</t>
-  </si>
-  <si>
     <t>Mega</t>
   </si>
   <si>
     <t>Discont.</t>
+  </si>
+  <si>
+    <t>Counting Uniqs Only - "Them" Row is our total</t>
   </si>
 </sst>
 </file>
@@ -491,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52CDA04D-563A-4A33-B4D6-3863C5F3B6C8}">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -596,7 +596,7 @@
         <v>26</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -633,9 +633,6 @@
       <c r="E8">
         <v>2</v>
       </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -651,6 +648,9 @@
         <v>15</v>
       </c>
       <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
         <v>5</v>
       </c>
     </row>
@@ -929,7 +929,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
         <v>17</v>
@@ -940,7 +940,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
         <v>20</v>
@@ -954,7 +954,7 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
@@ -962,13 +962,16 @@
       <c r="D27" t="s">
         <v>15</v>
       </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
         <v>17</v>
@@ -979,7 +982,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
         <v>19</v>
@@ -993,7 +996,7 @@
         <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
@@ -1001,13 +1004,16 @@
       <c r="D30" t="s">
         <v>18</v>
       </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
         <v>22</v>
@@ -1018,7 +1024,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32" t="s">
         <v>23</v>
@@ -1027,12 +1033,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C33" t="s">
         <v>15</v>
@@ -1040,13 +1046,16 @@
       <c r="D33" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33" s="2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C34" t="s">
         <v>22</v>
@@ -1055,9 +1064,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C35" t="s">
         <v>23</v>
@@ -1066,12 +1075,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C36" t="s">
         <v>15</v>
@@ -1079,13 +1088,16 @@
       <c r="D36" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C37" t="s">
         <v>24</v>
@@ -1093,10 +1105,16 @@
       <c r="D37" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37">
+        <v>10004</v>
+      </c>
+      <c r="G37">
+        <v>9975</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C38" t="s">
         <v>25</v>
@@ -1104,13 +1122,19 @@
       <c r="D38" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38">
+        <v>9960</v>
+      </c>
+      <c r="G38">
+        <v>9916</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C39" t="s">
         <v>16</v>
@@ -1118,13 +1142,24 @@
       <c r="D39" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39">
+        <v>19891</v>
+      </c>
+      <c r="F39">
+        <f>SUM(E37:E38)</f>
+        <v>19964</v>
+      </c>
+      <c r="G39">
+        <f>SUM(G37:G38)</f>
+        <v>19891</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C40" t="s">
         <v>24</v>
@@ -1132,10 +1167,16 @@
       <c r="D40" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40">
+        <v>380</v>
+      </c>
+      <c r="G40">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C41" t="s">
         <v>25</v>
@@ -1143,13 +1184,19 @@
       <c r="D41" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41">
+        <v>375</v>
+      </c>
+      <c r="G41">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C42" t="s">
         <v>16</v>
@@ -1157,13 +1204,24 @@
       <c r="D42" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42">
+        <v>755</v>
+      </c>
+      <c r="F42">
+        <f>SUM(E40:E41)</f>
+        <v>755</v>
+      </c>
+      <c r="G42">
+        <f>SUM(G40:G41)</f>
+        <v>755</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C43" t="s">
         <v>17</v>
@@ -1172,9 +1230,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C44" t="s">
         <v>20</v>
@@ -1183,12 +1241,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
@@ -1196,13 +1254,16 @@
       <c r="D45" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C46" t="s">
         <v>17</v>
@@ -1211,9 +1272,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C47" t="s">
         <v>19</v>
@@ -1222,12 +1283,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
@@ -1235,13 +1296,16 @@
       <c r="D48" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C49" t="s">
         <v>22</v>
@@ -1250,9 +1314,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C50" t="s">
         <v>23</v>
@@ -1261,12 +1325,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C51" t="s">
         <v>15</v>
@@ -1274,13 +1338,16 @@
       <c r="D51" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E51" s="2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C52" t="s">
         <v>22</v>
@@ -1289,9 +1356,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C53" t="s">
         <v>23</v>
@@ -1300,12 +1367,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C54" t="s">
         <v>15</v>
@@ -1313,13 +1380,16 @@
       <c r="D54" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C55" t="s">
         <v>24</v>
@@ -1327,10 +1397,16 @@
       <c r="D55" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E55">
+        <v>10004</v>
+      </c>
+      <c r="G55">
+        <v>9975</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C56" t="s">
         <v>25</v>
@@ -1338,13 +1414,19 @@
       <c r="D56" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E56">
+        <v>9960</v>
+      </c>
+      <c r="G56">
+        <v>9916</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C57" t="s">
         <v>16</v>
@@ -1352,13 +1434,24 @@
       <c r="D57" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E57">
+        <v>19917</v>
+      </c>
+      <c r="F57">
+        <f>SUM(E55:E56)</f>
+        <v>19964</v>
+      </c>
+      <c r="G57">
+        <f>SUM(G55:G56)</f>
+        <v>19891</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C58" t="s">
         <v>24</v>
@@ -1366,10 +1459,16 @@
       <c r="D58" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E58">
+        <v>380</v>
+      </c>
+      <c r="G58">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C59" t="s">
         <v>25</v>
@@ -1377,19 +1476,36 @@
       <c r="D59" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E59">
+        <v>379</v>
+      </c>
+      <c r="G59">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C60" t="s">
         <v>16</v>
       </c>
       <c r="D60" t="s">
         <v>18</v>
+      </c>
+      <c r="E60">
+        <v>759</v>
+      </c>
+      <c r="F60">
+        <f>SUM(E58:E59)</f>
+        <v>759</v>
+      </c>
+      <c r="G60">
+        <f>SUM(G58:G59)</f>
+        <v>759</v>
       </c>
     </row>
   </sheetData>

--- a/Results_Spreadsheet.xlsx
+++ b/Results_Spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\BCB546\Group Project\BCB546X_FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5CFFDE4-7260-4F8D-BDD8-6BA5EF39AF41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDB2344-3D0B-4794-8232-6B484AF9D3A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8FDF7948-A049-4EF5-95C9-622BE3889573}"/>
   </bookViews>
@@ -492,7 +492,7 @@
   <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1021,6 +1021,12 @@
       <c r="D31" t="s">
         <v>15</v>
       </c>
+      <c r="E31">
+        <v>10881</v>
+      </c>
+      <c r="G31">
+        <v>10860</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
@@ -1032,6 +1038,12 @@
       <c r="D32" t="s">
         <v>15</v>
       </c>
+      <c r="E32">
+        <v>10840</v>
+      </c>
+      <c r="G32">
+        <v>10794</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
@@ -1049,6 +1061,14 @@
       <c r="E33" s="2">
         <v>20000</v>
       </c>
+      <c r="F33">
+        <f>SUM(E31:E32)</f>
+        <v>21721</v>
+      </c>
+      <c r="G33">
+        <f>SUM(G31:G32)</f>
+        <v>21654</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
@@ -1063,6 +1083,9 @@
       <c r="D34" t="s">
         <v>18</v>
       </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
@@ -1073,6 +1096,9 @@
       </c>
       <c r="D35" t="s">
         <v>18</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -1313,6 +1339,12 @@
       <c r="D49" t="s">
         <v>15</v>
       </c>
+      <c r="E49">
+        <v>10877</v>
+      </c>
+      <c r="G49">
+        <v>10861</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
@@ -1324,6 +1356,12 @@
       <c r="D50" t="s">
         <v>15</v>
       </c>
+      <c r="E50">
+        <v>10866</v>
+      </c>
+      <c r="G50">
+        <v>10830</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
@@ -1341,6 +1379,14 @@
       <c r="E51" s="2">
         <v>20000</v>
       </c>
+      <c r="F51">
+        <f>SUM(E49:E50)</f>
+        <v>21743</v>
+      </c>
+      <c r="G51">
+        <f>SUM(G49:G50)</f>
+        <v>21691</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
@@ -1355,6 +1401,9 @@
       <c r="D52" t="s">
         <v>18</v>
       </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
@@ -1365,6 +1414,9 @@
       </c>
       <c r="D53" t="s">
         <v>18</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">

--- a/Results_Spreadsheet.xlsx
+++ b/Results_Spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\BCB546\Group Project\BCB546X_FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDB2344-3D0B-4794-8232-6B484AF9D3A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F6726D-2636-4F49-8F3F-3935ADD8046B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8FDF7948-A049-4EF5-95C9-622BE3889573}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="31">
   <si>
     <t>FileName</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Counting Uniqs Only - "Them" Row is our total</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -491,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52CDA04D-563A-4A33-B4D6-3863C5F3B6C8}">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,6 +621,9 @@
       <c r="E7">
         <v>3</v>
       </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -633,6 +639,9 @@
       <c r="E8">
         <v>2</v>
       </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -653,6 +662,9 @@
       <c r="F9">
         <v>5</v>
       </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -669,6 +681,9 @@
       </c>
       <c r="E10">
         <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -685,6 +700,9 @@
       <c r="E11">
         <v>0</v>
       </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -701,6 +719,9 @@
       </c>
       <c r="E12">
         <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -780,6 +801,9 @@
       <c r="E16">
         <v>0</v>
       </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
@@ -794,6 +818,9 @@
       <c r="E17">
         <v>0</v>
       </c>
+      <c r="G17" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
@@ -810,6 +837,9 @@
       </c>
       <c r="E18">
         <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -889,6 +919,9 @@
       <c r="E22">
         <v>380</v>
       </c>
+      <c r="G22">
+        <v>380</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
@@ -903,8 +936,8 @@
       <c r="E23">
         <v>375</v>
       </c>
-      <c r="F23">
-        <v>755</v>
+      <c r="G23">
+        <v>375</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -923,6 +956,13 @@
       <c r="E24">
         <v>763</v>
       </c>
+      <c r="F24">
+        <f>SUM(E22:E23)</f>
+        <v>755</v>
+      </c>
+      <c r="G24">
+        <v>755</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
@@ -937,6 +977,12 @@
       <c r="D25" t="s">
         <v>15</v>
       </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
@@ -948,6 +994,12 @@
       <c r="D26" t="s">
         <v>15</v>
       </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
@@ -965,6 +1017,12 @@
       <c r="E27">
         <v>5</v>
       </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
@@ -979,6 +1037,12 @@
       <c r="D28" t="s">
         <v>18</v>
       </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
@@ -990,6 +1054,12 @@
       <c r="D29" t="s">
         <v>18</v>
       </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
@@ -1006,6 +1076,9 @@
       </c>
       <c r="E30">
         <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1086,6 +1159,9 @@
       <c r="E34">
         <v>0</v>
       </c>
+      <c r="G34" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
@@ -1100,6 +1176,9 @@
       <c r="E35">
         <v>0</v>
       </c>
+      <c r="G35" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
@@ -1116,6 +1195,9 @@
       </c>
       <c r="E36">
         <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -1255,6 +1337,12 @@
       <c r="D43" t="s">
         <v>15</v>
       </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
@@ -1266,6 +1354,12 @@
       <c r="D44" t="s">
         <v>15</v>
       </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
@@ -1283,6 +1377,9 @@
       <c r="E45">
         <v>5</v>
       </c>
+      <c r="G45">
+        <v>5</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
@@ -1297,6 +1394,12 @@
       <c r="D46" t="s">
         <v>18</v>
       </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="G46" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
@@ -1308,6 +1411,12 @@
       <c r="D47" t="s">
         <v>18</v>
       </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="G47" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
@@ -1324,6 +1433,9 @@
       </c>
       <c r="E48">
         <v>0</v>
+      </c>
+      <c r="G48" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -1404,6 +1516,9 @@
       <c r="E52">
         <v>0</v>
       </c>
+      <c r="G52" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
@@ -1418,6 +1533,9 @@
       <c r="E53">
         <v>0</v>
       </c>
+      <c r="G53" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
@@ -1434,6 +1552,9 @@
       </c>
       <c r="E54">
         <v>0</v>
+      </c>
+      <c r="G54" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">

--- a/Results_Spreadsheet.xlsx
+++ b/Results_Spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\BCB546\Group Project\BCB546X_FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F6726D-2636-4F49-8F3F-3935ADD8046B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E7D82F-EB90-4C74-B99F-C67D8AE93649}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8FDF7948-A049-4EF5-95C9-622BE3889573}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="36">
   <si>
     <t>FileName</t>
   </si>
@@ -120,10 +120,25 @@
     <t>Discont.</t>
   </si>
   <si>
-    <t>Counting Uniqs Only - "Them" Row is our total</t>
-  </si>
-  <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>Unique Seq</t>
+  </si>
+  <si>
+    <t>Unique Seq =  Counting Unique Sequences Only.  "Them" row is our total</t>
+  </si>
+  <si>
+    <t>Seq in Created Fasta File</t>
+  </si>
+  <si>
+    <t>Seq in Created FASTQ</t>
+  </si>
+  <si>
+    <t>* Still Working</t>
+  </si>
+  <si>
+    <t>*Still Working</t>
   </si>
 </sst>
 </file>
@@ -173,11 +188,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52CDA04D-563A-4A33-B4D6-3863C5F3B6C8}">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -561,6 +579,9 @@
         <f t="shared" ref="E3:E4" si="1">D3-C3</f>
         <v>0</v>
       </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -581,27 +602,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="1"/>
+      <c r="G6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
@@ -683,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -701,8 +727,9 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -721,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -784,6 +811,12 @@
         <f>SUM(G13:G14)</f>
         <v>21654</v>
       </c>
+      <c r="H15">
+        <v>10860</v>
+      </c>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -802,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>13</v>
       </c>
@@ -819,10 +852,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
@@ -839,10 +872,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -862,7 +895,7 @@
         <v>9975</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>13</v>
       </c>
@@ -879,7 +912,7 @@
         <v>9916</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
@@ -902,8 +935,14 @@
         <f>SUM(G19:G20)</f>
         <v>19891</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21">
+        <v>9975</v>
+      </c>
+      <c r="I21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
@@ -923,7 +962,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>13</v>
       </c>
@@ -940,7 +979,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
@@ -963,8 +1002,14 @@
       <c r="G24">
         <v>755</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24">
+        <v>380</v>
+      </c>
+      <c r="I24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
@@ -984,7 +1029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>27</v>
       </c>
@@ -1001,7 +1046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
@@ -1024,7 +1069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>11</v>
       </c>
@@ -1041,10 +1086,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>27</v>
       </c>
@@ -1058,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>12</v>
       </c>
@@ -1078,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
@@ -1101,7 +1146,7 @@
         <v>10860</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>27</v>
       </c>
@@ -1160,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -1177,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -1197,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -1398,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -1415,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -1435,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -1517,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -1534,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -1554,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">

--- a/Results_Spreadsheet.xlsx
+++ b/Results_Spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\BCB546\Group Project\BCB546X_FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E7D82F-EB90-4C74-B99F-C67D8AE93649}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE35BCF4-39EB-4D0E-92D0-53BDF3142EC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8FDF7948-A049-4EF5-95C9-622BE3889573}"/>
   </bookViews>
@@ -513,7 +513,7 @@
   <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -770,6 +770,12 @@
       <c r="G13">
         <v>10860</v>
       </c>
+      <c r="H13">
+        <v>10861</v>
+      </c>
+      <c r="I13">
+        <v>10860</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
@@ -812,7 +818,7 @@
         <v>21654</v>
       </c>
       <c r="H15">
-        <v>10860</v>
+        <v>21659</v>
       </c>
       <c r="I15" t="s">
         <v>34</v>
@@ -894,6 +900,12 @@
       <c r="G19">
         <v>9975</v>
       </c>
+      <c r="H19">
+        <v>9975</v>
+      </c>
+      <c r="I19">
+        <v>9975</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
@@ -936,7 +948,7 @@
         <v>19891</v>
       </c>
       <c r="H21">
-        <v>9975</v>
+        <v>19894</v>
       </c>
       <c r="I21" t="s">
         <v>34</v>
@@ -961,6 +973,12 @@
       <c r="G22">
         <v>380</v>
       </c>
+      <c r="H22">
+        <v>380</v>
+      </c>
+      <c r="I22">
+        <v>380</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
@@ -1003,7 +1021,7 @@
         <v>755</v>
       </c>
       <c r="H24">
-        <v>380</v>
+        <v>759</v>
       </c>
       <c r="I24" t="s">
         <v>35</v>

--- a/Results_Spreadsheet.xlsx
+++ b/Results_Spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\BCB546\Group Project\BCB546X_FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE35BCF4-39EB-4D0E-92D0-53BDF3142EC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71473F9C-370B-4C32-9521-3A9389B73AD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8FDF7948-A049-4EF5-95C9-622BE3889573}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="34">
   <si>
     <t>FileName</t>
   </si>
@@ -133,12 +133,6 @@
   </si>
   <si>
     <t>Seq in Created FASTQ</t>
-  </si>
-  <si>
-    <t>* Still Working</t>
-  </si>
-  <si>
-    <t>*Still Working</t>
   </si>
 </sst>
 </file>
@@ -512,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52CDA04D-563A-4A33-B4D6-3863C5F3B6C8}">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -820,8 +814,9 @@
       <c r="H15">
         <v>21659</v>
       </c>
-      <c r="I15" t="s">
-        <v>34</v>
+      <c r="I15">
+        <f>86616/4</f>
+        <v>21654</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -950,8 +945,9 @@
       <c r="H21">
         <v>19894</v>
       </c>
-      <c r="I21" t="s">
-        <v>34</v>
+      <c r="I21">
+        <f>79564/4</f>
+        <v>19891</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -1023,8 +1019,9 @@
       <c r="H24">
         <v>759</v>
       </c>
-      <c r="I24" t="s">
-        <v>35</v>
+      <c r="I24">
+        <f>3020/4</f>
+        <v>755</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
